--- a/Rapport/Audit-SEO .xlsx
+++ b/Rapport/Audit-SEO .xlsx
@@ -45,8 +45,7 @@
     <t>Mettre une balise meta description sur chaque page</t>
   </si>
   <si>
-    <t>Page acceuil =&gt; La chouette agence, une grande agence de web design basée à Lyon. blalblabla...
-Page contact =&gt; Ici le texte de la meta de la page contact</t>
+    <t>Page acceuil =&gt; La chouette agence, une grande agence de web design basée à Lyon.</t>
   </si>
   <si>
     <t>https://web.dev/meta-description/?utm_source=lighthouse&amp;utm_medium=devtools</t>
@@ -926,7 +925,7 @@
       </c>
     </row>
     <row r="7" ht="29.25" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
